--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C0A0B49-85A1-411C-808A-0BE31BDFD9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA03391-EE8D-40F1-9DF1-5AEC504646F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5736" yWindow="2208" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -127,13 +127,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,6 +163,15 @@
       <b/>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,7 +633,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -641,71 +643,77 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,15 +726,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1052,7 @@
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
-      <c r="P2" s="43"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1061,53 +1061,53 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="45" t="s">
         <v>0</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1127,31 +1127,31 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="42"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1160,114 +1160,114 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="12"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="23"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J2:N2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BDF4C6-C545-4E13-B226-F7B6E335A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E42060-CA8A-48CA-849D-9EDCDD5E2D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4545" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>17-23</t>
   </si>
@@ -136,13 +136,16 @@
   </si>
   <si>
     <t>Relización de la presentación final</t>
+  </si>
+  <si>
+    <t>18-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +168,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,7 +192,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,127 +641,132 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,8 +1119,8 @@
       <c r="N4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="19" t="s">
         <v>9</v>
@@ -1100,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>11</v>
@@ -1159,44 +1193,44 @@
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="50"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
@@ -1206,8 +1240,8 @@
         <v>26</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
@@ -1217,12 +1251,12 @@
       <c r="B11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
@@ -1231,94 +1265,94 @@
       <c r="B12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="3"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="45"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="45"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E42060-CA8A-48CA-849D-9EDCDD5E2D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A808A295-7749-476B-ACE3-16FB89DAE909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,22 +641,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,24 +662,6 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,40 +671,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,15 +700,71 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,298 +1074,281 @@
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="7" t="s">
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="19" t="s">
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="30"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -1375,10 +1356,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A808A295-7749-476B-ACE3-16FB89DAE909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312A1A30-1AF2-43FC-A44A-9B346DE324B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +182,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -641,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,6 +718,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,33 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,29 +1090,29 @@
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="48" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
       <c r="R4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1174,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1174,7 +1188,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1200,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
@@ -1198,7 +1212,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
@@ -1210,7 +1224,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="54" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1224,7 +1238,7 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
@@ -1236,7 +1250,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="46" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1250,7 +1264,7 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="22" t="s">
         <v>31</v>
       </c>
@@ -1258,11 +1272,11 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="23" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1288,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="25"/>
@@ -1286,7 +1300,7 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="26"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1296,7 +1310,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="27"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1306,7 +1320,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="25"/>
@@ -1318,7 +1332,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="26"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1328,34 +1342,34 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="51" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312A1A30-1AF2-43FC-A44A-9B346DE324B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06641605-6BA4-41FC-8722-D34FD530B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>17-23</t>
   </si>
@@ -120,9 +120,6 @@
     <t xml:space="preserve">Adaptación de los parámetros </t>
   </si>
   <si>
-    <t xml:space="preserve">Generación del modelo </t>
-  </si>
-  <si>
     <t>Optimización del modelo</t>
   </si>
   <si>
@@ -139,13 +136,22 @@
   </si>
   <si>
     <t>18-21</t>
+  </si>
+  <si>
+    <t>Integración del sensor al diseño inicial</t>
+  </si>
+  <si>
+    <t>Integración de las bobinas al diseño con sensor</t>
+  </si>
+  <si>
+    <t>Diseño de las capas/estructura del sensor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +195,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3700C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +276,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3700C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -650,11 +669,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,6 +752,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,40 +809,14 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,6 +825,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3700C0"/>
       <color rgb="FFCC0099"/>
       <color rgb="FFEAF4E4"/>
       <color rgb="FF8CBDFE"/>
@@ -795,7 +834,6 @@
       <color rgb="FF215EE7"/>
       <color rgb="FFBFD8EF"/>
       <color rgb="FFAFCEEB"/>
-      <color rgb="FF3700C0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1072,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,29 +1128,29 @@
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="37" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
       <c r="R4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>11</v>
@@ -1174,7 +1212,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1188,7 +1226,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1200,7 +1238,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
@@ -1212,7 +1250,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="53"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1262,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1238,7 +1276,7 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
@@ -1250,7 +1288,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1264,66 +1302,68 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="43"/>
+      <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="23" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="55"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="25"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1331,9 +1371,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="26"/>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="45"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1341,35 +1381,57 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="48"/>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>36</v>
-      </c>
+      <c r="A21" s="56"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38"/>
+      <c r="B24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06641605-6BA4-41FC-8722-D34FD530B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36620FC-1966-45B6-9363-8B2B4D77D1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -752,71 +752,71 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,29 +1128,29 @@
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="47" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
       <c r="R4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1222,11 +1222,11 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1276,7 +1276,7 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1299,10 +1299,10 @@
       <c r="E12" s="13"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="22" t="s">
         <v>37</v>
       </c>
@@ -1310,11 +1310,11 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
@@ -1322,23 +1322,23 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="33"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="61" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="59" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="25"/>
@@ -1362,7 +1362,7 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="26"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1372,7 +1372,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="27"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1382,7 +1382,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="25"/>
@@ -1394,7 +1394,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="26"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1404,34 +1404,34 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="56" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36620FC-1966-45B6-9363-8B2B4D77D1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D869542E-A389-4A11-A024-03758B97B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>17-23</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Diseño de las capas/estructura del sensor</t>
+  </si>
+  <si>
+    <t>Desarrollo de la memoria</t>
+  </si>
+  <si>
+    <t>Desarrollo de los anexos</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +288,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF6FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -688,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,6 +835,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,12 +846,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFECF6FE"/>
       <color rgb="FF3700C0"/>
       <color rgb="FFCC0099"/>
       <color rgb="FFEAF4E4"/>
       <color rgb="FF8CBDFE"/>
       <color rgb="FFD8E6F8"/>
-      <color rgb="FFECF6FE"/>
       <color rgb="FF215EE7"/>
       <color rgb="FFBFD8EF"/>
       <color rgb="FFAFCEEB"/>
@@ -1112,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,17 +1406,21 @@
       <c r="A20" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="63" t="s">
+        <v>40</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="52"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="64" t="s">
+        <v>41</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D869542E-A389-4A11-A024-03758B97B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CFB190-723A-4481-AA01-C555BD87F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>17-23</t>
   </si>
@@ -151,13 +151,19 @@
   </si>
   <si>
     <t>Desarrollo de los anexos</t>
+  </si>
+  <si>
+    <t>22-27</t>
+  </si>
+  <si>
+    <t>28-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +214,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +313,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -702,11 +727,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,71 +820,81 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,8 +903,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3700C0"/>
       <color rgb="FFECF6FE"/>
-      <color rgb="FF3700C0"/>
       <color rgb="FFCC0099"/>
       <color rgb="FFEAF4E4"/>
       <color rgb="FF8CBDFE"/>
@@ -1131,52 +1188,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="42" t="s">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48" t="s">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="42" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="10" t="s">
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1198,42 +1258,45 @@
       <c r="G5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1245,9 +1308,13 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1257,9 +1324,13 @@
       <c r="F7" s="29"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
       <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
@@ -1268,10 +1339,14 @@
       <c r="E8" s="2"/>
       <c r="F8" s="30"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50"/>
       <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
@@ -1281,9 +1356,13 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1295,9 +1374,13 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="60"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52"/>
       <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
@@ -1307,9 +1390,13 @@
       <c r="F11" s="36"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1321,9 +1408,13 @@
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
       <c r="B13" s="22" t="s">
         <v>37</v>
       </c>
@@ -1333,9 +1424,13 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
       <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
@@ -1344,11 +1439,15 @@
       <c r="E14" s="13"/>
       <c r="F14" s="33"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="41" t="s">
+      <c r="H14" s="68"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="3"/>
@@ -1356,10 +1455,14 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
@@ -1369,9 +1472,13 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="25"/>
@@ -1381,9 +1488,13 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
       <c r="B18" s="26"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1391,9 +1502,13 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="52"/>
       <c r="B19" s="27"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1401,12 +1516,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="3"/>
@@ -1414,11 +1533,15 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="62"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="64" t="s">
+      <c r="H20" s="70"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="63"/>
+      <c r="B21" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="3"/>
@@ -1427,36 +1550,40 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="53"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="47"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="55"/>
-      <c r="B24" s="53"/>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="45"/>
+      <c r="B24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CFB190-723A-4481-AA01-C555BD87F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829C8259-C593-4680-8E1B-6014C71F5A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,15 +99,9 @@
     <t>Búsqueda de herramientas para el diseño</t>
   </si>
   <si>
-    <t>Búsqueda de herramientas para la simulación</t>
-  </si>
-  <si>
     <t>Búsqueda de sensores biocompatibles</t>
   </si>
   <si>
-    <t>Parámetros iniciales del stent</t>
-  </si>
-  <si>
     <t>CREACIÓN DEL DISEÑO  BÁSICO STENT</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Optimización del modelo</t>
   </si>
   <si>
-    <t xml:space="preserve">SIMULACIÓN DEL DISEÑO FINAL </t>
-  </si>
-  <si>
     <t>ELABORACIÓN DE LA PRESENTACIÓN</t>
   </si>
   <si>
@@ -157,13 +148,22 @@
   </si>
   <si>
     <t>28-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIABILIDAD DEL DISEÑO FINAL </t>
+  </si>
+  <si>
+    <t>Búsqueda de parámetros para la simulación</t>
+  </si>
+  <si>
+    <t>Búsqueda y elección de parámetros iniciales del stent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -303,12 +310,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFECF6FE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -753,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,80 +828,85 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,17 +1202,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
     <col min="3" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -1208,30 +1221,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="54" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="56"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
       <c r="S4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>11</v>
@@ -1258,11 +1271,11 @@
       <c r="G5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="65" t="s">
-        <v>42</v>
+      <c r="H5" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>14</v>
@@ -1296,7 +1309,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1314,7 +1327,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1330,9 +1343,9 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1346,9 +1359,9 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="23" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1358,15 +1371,15 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
+      <c r="A10" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -1380,9 +1393,9 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1396,11 +1409,11 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
-        <v>29</v>
+      <c r="A12" s="59" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1408,15 +1421,15 @@
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="66"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1424,31 +1437,31 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="67"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="33"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="68"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="39"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1456,15 +1469,15 @@
       <c r="F15" s="3"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1478,8 +1491,8 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
-        <v>32</v>
+      <c r="A17" s="67" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="13"/>
@@ -1494,7 +1507,7 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="26"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1508,7 +1521,7 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="27"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1522,27 +1535,27 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>40</v>
+      <c r="A20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="43" t="s">
-        <v>41</v>
+      <c r="A21" s="60"/>
+      <c r="B21" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1556,34 +1569,34 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>35</v>
+      <c r="A23" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829C8259-C593-4680-8E1B-6014C71F5A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F513BC-E293-40F3-9508-7FA6A4DDB499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>17-23</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Búsqueda y elección de parámetros iniciales del stent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio de  Expansión del stent según la temperatura </t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,7 +331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFCEEB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,6 +846,41 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,45 +911,11 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,6 +924,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFAFCEEB"/>
       <color rgb="FF3700C0"/>
       <color rgb="FFECF6FE"/>
       <color rgb="FFCC0099"/>
@@ -923,7 +933,6 @@
       <color rgb="FFD8E6F8"/>
       <color rgb="FF215EE7"/>
       <color rgb="FFBFD8EF"/>
-      <color rgb="FFAFCEEB"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1203,7 +1212,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,30 +1230,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="49" t="s">
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="51"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63"/>
       <c r="S4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1271,10 +1280,10 @@
       <c r="G5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>40</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -1309,7 +1318,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1327,14 +1336,14 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1343,23 +1352,23 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="23" t="s">
         <v>42</v>
       </c>
@@ -1370,20 +1379,20 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1393,14 +1402,14 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1409,7 +1418,7 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="55" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1418,64 +1427,64 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="44"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="45"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="39"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="71"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="23" t="s">
         <v>29</v>
       </c>
@@ -1486,15 +1495,17 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1503,12 +1514,12 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1521,8 +1532,8 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1535,10 +1546,10 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="3"/>
@@ -1547,14 +1558,14 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="3"/>
@@ -1569,34 +1580,34 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
-      <c r="B24" s="61"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F513BC-E293-40F3-9508-7FA6A4DDB499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F62E0A-B016-41DB-89CD-721689A1A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">Adaptación de los parámetros </t>
   </si>
   <si>
-    <t>Optimización del modelo</t>
-  </si>
-  <si>
     <t>ELABORACIÓN DE LA PRESENTACIÓN</t>
   </si>
   <si>
@@ -153,13 +150,16 @@
     <t xml:space="preserve">VIABILIDAD DEL DISEÑO FINAL </t>
   </si>
   <si>
-    <t>Búsqueda de parámetros para la simulación</t>
-  </si>
-  <si>
     <t>Búsqueda y elección de parámetros iniciales del stent</t>
   </si>
   <si>
     <t xml:space="preserve">Estudio de  Expansión del stent según la temperatura </t>
+  </si>
+  <si>
+    <t>Caracterización de componentes del parche</t>
+  </si>
+  <si>
+    <t>Búsqueda de parámetros  utilizados en la viabilidad del diseño</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,6 +851,47 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,12 +901,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,41 +916,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,7 +1213,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,30 +1231,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="61" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
       <c r="S4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>11</v>
@@ -1281,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="H5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>14</v>
@@ -1318,7 +1319,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="63" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1336,7 +1337,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1353,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="22" t="s">
         <v>24</v>
       </c>
@@ -1368,9 +1369,9 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1380,15 +1381,15 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="71" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="32"/>
@@ -1402,7 +1403,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="24" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1419,7 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="63" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1436,9 +1437,9 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1452,9 +1453,9 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1468,9 +1469,9 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1484,9 +1485,9 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="23" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1499,12 +1500,12 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
-        <v>41</v>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1514,11 +1515,11 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="73"/>
       <c r="B18" s="25"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1531,8 +1532,8 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
       <c r="B19" s="26"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1545,12 +1546,12 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
-        <v>31</v>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1561,12 +1562,13 @@
       <c r="I20" s="50"/>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="64"/>
       <c r="B21" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1579,35 +1581,35 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="65"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="54"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="67"/>
+      <c r="B24" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F62E0A-B016-41DB-89CD-721689A1A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C0415-66E7-458F-A5A9-632089B8BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>17-23</t>
   </si>
@@ -160,13 +160,19 @@
   </si>
   <si>
     <t>Búsqueda de parámetros  utilizados en la viabilidad del diseño</t>
+  </si>
+  <si>
+    <t>Elaboración del plano arquitectónico inicial</t>
+  </si>
+  <si>
+    <t>Elaboración del plano arquitectónico final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +237,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,8 +361,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -765,11 +797,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,7 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,7 +872,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,12 +897,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -850,9 +918,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -883,40 +981,27 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,120 +1316,120 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="53" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="10" t="s">
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1353,24 +1438,24 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="4"/>
@@ -1381,235 +1466,267 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="52"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="57"/>
+      <c r="B11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="43"/>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="56"/>
+      <c r="B12" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
+      <c r="M12" s="79"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="44"/>
+      <c r="A13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="38"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="80"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="54"/>
+      <c r="B18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B19" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="86"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="57"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="41" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="56"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="42"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="68"/>
+      <c r="B23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="65"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="84"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B24" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="65"/>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49"/>
+      <c r="B25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C0415-66E7-458F-A5A9-632089B8BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BCEEDB-0373-4040-B25C-147D39534267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,13 +159,13 @@
     <t>Caracterización de componentes del parche</t>
   </si>
   <si>
-    <t>Búsqueda de parámetros  utilizados en la viabilidad del diseño</t>
-  </si>
-  <si>
     <t>Elaboración del plano arquitectónico inicial</t>
   </si>
   <si>
     <t>Elaboración del plano arquitectónico final</t>
+  </si>
+  <si>
+    <t>Búsqueda de parámetros utilizados en la viabilidad del diseño</t>
   </si>
 </sst>
 </file>
@@ -921,69 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
@@ -992,16 +929,79 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,30 +1316,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="58" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="9" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -1417,12 +1417,14 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1438,7 +1440,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1454,9 +1456,9 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1471,7 +1473,7 @@
       <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="84" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -1479,8 +1481,8 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="69"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1489,40 +1491,40 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
-      <c r="B12" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="73"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="52"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="79"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="76" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -1540,7 +1542,7 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1556,7 +1558,7 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="22" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1574,7 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="34" t="s">
         <v>35</v>
       </c>
@@ -1588,25 +1590,25 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="80"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1620,7 +1622,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="84" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="34" t="s">
@@ -1636,10 +1638,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="45"/>
       <c r="L19" s="45"/>
-      <c r="M19" s="86"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="23"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1653,7 +1655,7 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="56"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="24"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1667,7 +1669,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="76" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="35" t="s">
@@ -1680,13 +1682,13 @@
       <c r="G22" s="12"/>
       <c r="H22" s="29"/>
       <c r="I22" s="38"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="42"/>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="36" t="s">
         <v>37</v>
       </c>
@@ -1700,33 +1702,33 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="84"/>
+      <c r="M23" s="63"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="80" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="49"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BCEEDB-0373-4040-B25C-147D39534267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F225DCA4-2AC6-4FD8-9D2C-DFC95D334CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>17-23</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Búsqueda de parámetros utilizados en la viabilidad del diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálculo de perfil de velocidad de Poiseuille en el stent </t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +376,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6600FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -674,19 +689,6 @@
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -856,12 +858,6 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -886,12 +882,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,10 +898,10 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -923,22 +918,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,7 +976,7 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,39 +991,17 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,6 +1010,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6600FF"/>
       <color rgb="FFAFCEEB"/>
       <color rgb="FF3700C0"/>
       <color rgb="FFECF6FE"/>
@@ -1297,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,7 +1309,7 @@
     <col min="3" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -1316,60 +1317,60 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="66" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="9" t="s">
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1384,80 +1385,99 @@
       <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="82" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="4"/>
@@ -1468,146 +1488,207 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="86"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="58"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="39"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="33"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="44"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="21" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="59"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
-      <c r="B18" s="21" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="66"/>
+      <c r="B18" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="4"/>
@@ -1620,29 +1701,44 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="84" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="65"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="23"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="68"/>
+      <c r="B20" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1653,10 +1749,17 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="86"/>
-      <c r="B21" s="24"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="69"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1667,29 +1770,42 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="42"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="77"/>
-      <c r="B23" s="36" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="80"/>
+      <c r="B23" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="3"/>
@@ -1702,33 +1818,39 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="63"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="M23" s="81"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="62" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="79"/>
-      <c r="B25" s="81"/>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
+      <c r="B25" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F225DCA4-2AC6-4FD8-9D2C-DFC95D334CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881CBE1-7347-4C2A-8530-8F0E08C263B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>17-23</t>
   </si>
@@ -84,12 +84,6 @@
     <t>26-30</t>
   </si>
   <si>
-    <t>02-09</t>
-  </si>
-  <si>
-    <t>02-06</t>
-  </si>
-  <si>
     <t xml:space="preserve">INVESTIGACIÓN Y RECOLECCION DE INFORMACIÓN </t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>Búsqueda y elección de parámetros iniciales del stent</t>
   </si>
   <si>
-    <t xml:space="preserve">Estudio de  Expansión del stent según la temperatura </t>
-  </si>
-  <si>
     <t>Caracterización de componentes del parche</t>
   </si>
   <si>
@@ -168,7 +159,40 @@
     <t>Búsqueda de parámetros utilizados en la viabilidad del diseño</t>
   </si>
   <si>
-    <t xml:space="preserve">Cálculo de perfil de velocidad de Poiseuille en el stent </t>
+    <t>Análisis eléctrico del circuito LC</t>
+  </si>
+  <si>
+    <t>Evaluación mecánica del stent (tensiones y factor de seguridad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELABORACIÓN APP </t>
+  </si>
+  <si>
+    <t>Creación de la app y configuración de la pantalla de inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálculo de perfil de velocidad de flujo en el stent </t>
+  </si>
+  <si>
+    <t>Elaboración pestaña Visualización diseño en 3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboración pestaña Estudio de Expansión </t>
+  </si>
+  <si>
+    <t>Elaboración pestañas Analisis eléctrico</t>
+  </si>
+  <si>
+    <t>Elaboración pestaña Evaluación mecánica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio de expansión del stent según la temperatura </t>
+  </si>
+  <si>
+    <t>01-09</t>
+  </si>
+  <si>
+    <t>01-06</t>
   </si>
 </sst>
 </file>
@@ -255,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +412,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -601,21 +643,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -836,6 +863,32 @@
       </right>
       <top style="thin">
         <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -844,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -855,7 +908,7 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,11 +935,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -898,10 +950,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -909,7 +960,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -918,82 +969,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1002,6 +990,71 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,6 +1063,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9900FF"/>
       <color rgb="FF6600FF"/>
       <color rgb="FFAFCEEB"/>
       <color rgb="FF3700C0"/>
@@ -1019,7 +1073,6 @@
       <color rgb="FF8CBDFE"/>
       <color rgb="FFD8E6F8"/>
       <color rgb="FF215EE7"/>
-      <color rgb="FFBFD8EF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1296,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1362,7 @@
     <col min="3" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -1317,30 +1370,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="70" t="s">
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="66"/>
       <c r="S4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1353,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
@@ -1367,11 +1420,11 @@
       <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>39</v>
+      <c r="H5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>14</v>
@@ -1385,11 +1438,11 @@
       <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>3</v>
@@ -1397,19 +1450,19 @@
       <c r="Q5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="82" t="s">
+      <c r="S5" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1423,21 +1476,21 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1453,16 +1506,16 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1476,9 +1529,9 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1488,27 +1541,27 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="4"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>41</v>
+      <c r="A10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1524,17 +1577,17 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1547,21 +1600,21 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="69"/>
-      <c r="B12" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="49"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="47"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="83"/>
+      <c r="M12" s="60"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1570,19 +1623,19 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
-        <v>27</v>
+      <c r="A13" s="74" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="35"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1595,17 +1648,17 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="36"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1618,17 +1671,17 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="30"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1641,19 +1694,19 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="31" t="s">
-        <v>35</v>
+      <c r="A16" s="75"/>
+      <c r="B16" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="41"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1664,20 +1717,20 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="55"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1687,9 +1740,9 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66"/>
-      <c r="B18" s="19" t="s">
-        <v>45</v>
+      <c r="A18" s="76"/>
+      <c r="B18" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1702,7 +1755,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="85"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1710,11 +1763,11 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>42</v>
+      <c r="A19" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1724,9 +1777,9 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="84"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1735,9 +1788,9 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="31" t="s">
-        <v>47</v>
+      <c r="A20" s="75"/>
+      <c r="B20" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1750,107 +1803,284 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="86"/>
+      <c r="N20" s="63"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="75"/>
+      <c r="B21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="84"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="76"/>
+      <c r="B22" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="80"/>
-      <c r="B23" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="75"/>
+      <c r="B25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="75"/>
+      <c r="B26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="76"/>
+      <c r="B27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="80"/>
+      <c r="B29" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
-      <c r="B25" s="63"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="76"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881CBE1-7347-4C2A-8530-8F0E08C263B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D120BA10-CFB3-4C58-BA29-224B8A4762CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,7 +959,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -982,7 +981,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,71 +988,71 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,30 +1368,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="64" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="66"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="78"/>
       <c r="S4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1453,12 +1451,12 @@
       <c r="R5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="59" t="s">
+      <c r="S5" s="57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="68" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1483,7 +1481,7 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
@@ -1506,7 +1504,7 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +1527,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="19" t="s">
         <v>43</v>
       </c>
@@ -1541,27 +1539,27 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1577,17 +1575,17 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1600,21 +1598,21 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="60"/>
+      <c r="M12" s="58"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1623,7 +1621,7 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="68" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1648,7 +1646,7 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="18" t="s">
         <v>31</v>
       </c>
@@ -1671,7 +1669,7 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="20" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1692,7 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="30" t="s">
         <v>33</v>
       </c>
@@ -1706,7 +1704,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="39"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1717,20 +1715,20 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="53"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1740,8 +1738,8 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="4"/>
@@ -1755,7 +1753,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="62"/>
+      <c r="N18" s="60"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1763,10 +1761,10 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="62" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="10"/>
@@ -1777,9 +1775,9 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="61"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1788,7 +1786,7 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="30" t="s">
         <v>48</v>
       </c>
@@ -1803,39 +1801,39 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="84"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="63"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="76"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="4"/>
@@ -1849,101 +1847,101 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="83"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="3"/>
+      <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="72" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="86"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="3"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="87"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="66"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="82"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1951,136 +1949,156 @@
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="76"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
-        <v>28</v>
-      </c>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="69"/>
       <c r="B28" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="80"/>
-      <c r="B29" s="88" t="s">
+      <c r="A29" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="86"/>
+      <c r="B30" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="76"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="69"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D120BA10-CFB3-4C58-BA29-224B8A4762CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3DBE2E-1106-4F01-B25C-E00C764F9B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>17-23</t>
   </si>
@@ -193,13 +193,16 @@
   </si>
   <si>
     <t>01-06</t>
+  </si>
+  <si>
+    <t>Elaboración pestaña Perfil del flujo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +281,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF3300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -294,12 +311,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,84 +341,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0099"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3700C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFECF6FE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFCEEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6600FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,6 +372,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6800D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6565"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6565FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,154 +922,155 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,16 +1079,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF9900FF"/>
-      <color rgb="FF6600FF"/>
-      <color rgb="FFAFCEEB"/>
-      <color rgb="FF3700C0"/>
-      <color rgb="FFECF6FE"/>
-      <color rgb="FFCC0099"/>
-      <color rgb="FFEAF4E4"/>
-      <color rgb="FF8CBDFE"/>
-      <color rgb="FFD8E6F8"/>
-      <color rgb="FF215EE7"/>
+      <color rgb="FF6565FF"/>
+      <color rgb="FF3333FF"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF6800D0"/>
+      <color rgb="FFFF6565"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFC133DD"/>
+      <color rgb="FFAC29DB"/>
+      <color rgb="FF742DB5"/>
+      <color rgb="FF9B557D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1347,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,30 +1386,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="76" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="78"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="54"/>
       <c r="S4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1418,10 +1436,10 @@
       <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1436,7 +1454,7 @@
       <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="13" t="s">
@@ -1448,47 +1466,47 @@
       <c r="Q5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1504,16 +1522,16 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1527,8 +1545,8 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="69"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="4"/>
@@ -1539,27 +1557,27 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1575,17 +1593,17 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1598,21 +1616,21 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="58"/>
+      <c r="M12" s="78"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1621,19 +1639,19 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="33"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1646,17 +1664,17 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="34"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1669,17 +1687,17 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="29"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1692,19 +1710,19 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="38"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1715,20 +1733,20 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="52"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="39"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1738,8 +1756,8 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="69"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="4"/>
@@ -1753,7 +1771,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="60"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1761,10 +1779,10 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="10"/>
@@ -1775,9 +1793,9 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="59"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="85"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1786,8 +1804,8 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="3"/>
@@ -1801,39 +1819,39 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="63"/>
+      <c r="O21" s="47"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="69"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="4"/>
@@ -1855,114 +1873,114 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="65"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="87"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="72"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="66"/>
+      <c r="O24" s="88"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="72"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="48"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="72"/>
-      <c r="B26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
-      <c r="B27" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="67"/>
+      <c r="B27" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1972,9 +1990,9 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
-      <c r="B28" s="31" t="s">
-        <v>34</v>
+      <c r="A28" s="67"/>
+      <c r="B28" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1994,35 +2012,35 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="68" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="63"/>
+      <c r="B30" s="49" t="s">
         <v>35</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="86"/>
-      <c r="B30" s="70" t="s">
-        <v>29</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2034,26 +2052,28 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="68" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="71"/>
+      <c r="B31" s="65" t="s">
+        <v>29</v>
+      </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2066,7 +2086,8 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="69"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2085,20 +2106,58 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3DBE2E-1106-4F01-B25C-E00C764F9B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF6EBA-4D91-4737-B423-6B2FEAD99863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6565FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,63 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1070,7 +1019,64 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,30 +1392,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="52" t="s">
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="54"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="80"/>
       <c r="S4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1474,39 +1480,39 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="70" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1522,16 +1528,16 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1545,7 +1551,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="18" t="s">
         <v>43</v>
       </c>
@@ -1558,17 +1564,17 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1576,7 +1582,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="77"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="30"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1593,7 +1599,7 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1622,7 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="70"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
@@ -1630,7 +1636,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="78"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1639,7 +1645,7 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1648,9 +1654,9 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="26"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -1664,7 +1670,7 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
@@ -1672,8 +1678,8 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="27"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1687,7 +1693,7 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="19" t="s">
         <v>32</v>
       </c>
@@ -1696,8 +1702,8 @@
       <c r="E15" s="10"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1710,7 +1716,7 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
@@ -1720,9 +1726,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1733,7 +1739,7 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1756,7 +1762,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="34" t="s">
         <v>42</v>
       </c>
@@ -1771,7 +1777,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="84"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1779,7 +1785,7 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="70" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -1793,9 +1799,9 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="85"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="66"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1804,7 +1810,7 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="23" t="s">
         <v>48</v>
       </c>
@@ -1827,7 +1833,7 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="18" t="s">
         <v>44</v>
       </c>
@@ -1850,7 +1856,7 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="64"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="34" t="s">
         <v>45</v>
       </c>
@@ -1873,7 +1879,7 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="70" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -1890,15 +1896,15 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="87"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="18" t="s">
         <v>49</v>
       </c>
@@ -1914,14 +1920,14 @@
       <c r="L24" s="39"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="88"/>
+      <c r="O24" s="69"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="18" t="s">
         <v>50</v>
       </c>
@@ -1944,7 +1950,7 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="18" t="s">
         <v>56</v>
       </c>
@@ -1960,14 +1966,14 @@
       <c r="L26" s="39"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="89"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="18" t="s">
         <v>51</v>
       </c>
@@ -1990,7 +1996,7 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="18" t="s">
         <v>52</v>
       </c>
@@ -2013,7 +2019,7 @@
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="70" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2038,7 +2044,7 @@
       <c r="S29" s="30"/>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="49" t="s">
         <v>35</v>
       </c>
@@ -2061,10 +2067,10 @@
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="72" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="10"/>
@@ -2086,8 +2092,8 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="64"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2106,46 +2112,13 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A6:A9"/>
@@ -2153,11 +2126,6 @@
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF6EBA-4D91-4737-B423-6B2FEAD99863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369DAF6-276D-4B16-BA39-87289E412FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t xml:space="preserve">Elaboración pestaña Estudio de Expansión </t>
   </si>
   <si>
-    <t>Elaboración pestañas Analisis eléctrico</t>
-  </si>
-  <si>
     <t>Elaboración pestaña Evaluación mecánica</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Elaboración pestaña Perfil del flujo</t>
+  </si>
+  <si>
+    <t>Elaboración pestañas Análisis eléctrico</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +450,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B557D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1019,9 +1031,43 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,40 +1089,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,6 +1099,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9B557D"/>
       <color rgb="FF6565FF"/>
       <color rgb="FF3333FF"/>
       <color rgb="FF0000FF"/>
@@ -1094,7 +1109,6 @@
       <color rgb="FFC133DD"/>
       <color rgb="FFAC29DB"/>
       <color rgb="FF742DB5"/>
-      <color rgb="FF9B557D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1373,14 +1387,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
     <col min="3" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
@@ -1392,30 +1406,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="78" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="80"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
       <c r="S4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +1478,7 @@
         <v>18</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>3</v>
@@ -1476,11 +1490,11 @@
         <v>4</v>
       </c>
       <c r="S5" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="81" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1499,13 +1513,13 @@
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1542,7 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1565,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="18" t="s">
         <v>43</v>
       </c>
@@ -1568,13 +1582,13 @@
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
       <c r="O9" s="57"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="87" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1599,7 +1613,7 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="76"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1636,7 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
@@ -1645,7 +1659,7 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="81" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1670,7 +1684,7 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
@@ -1693,7 +1707,7 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="19" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1730,7 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
@@ -1739,7 +1753,7 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1762,7 +1776,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="34" t="s">
         <v>42</v>
       </c>
@@ -1785,11 +1799,11 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="81" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1810,7 +1824,7 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="23" t="s">
         <v>48</v>
       </c>
@@ -1833,7 +1847,7 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="18" t="s">
         <v>44</v>
       </c>
@@ -1850,13 +1864,13 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="47"/>
-      <c r="P21" s="3"/>
+      <c r="P21" s="47"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="34" t="s">
         <v>45</v>
       </c>
@@ -1873,13 +1887,13 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="P22" s="90"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="81" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -1904,7 +1918,7 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="18" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +1941,7 @@
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="18" t="s">
         <v>50</v>
       </c>
@@ -1950,9 +1964,9 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -1966,16 +1980,16 @@
       <c r="L26" s="39"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="89"/>
+      <c r="O26" s="70"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -1990,15 +2004,15 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="P27" s="91"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="74"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2019,7 +2033,7 @@
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="81" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2038,13 +2052,13 @@
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43"/>
-      <c r="P29" s="30"/>
+      <c r="P29" s="43"/>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="49" t="s">
         <v>35</v>
       </c>
@@ -2061,16 +2075,16 @@
       <c r="M30" s="50"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51"/>
-      <c r="P30" s="4"/>
+      <c r="P30" s="43"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="84" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="10"/>
@@ -2092,33 +2106,28 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A6:A9"/>
@@ -2126,6 +2135,11 @@
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A28"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TFG_Julia\Trabajo_Fin_Grado_GIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369DAF6-276D-4B16-BA39-87289E412FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B5B6DC-3A0C-4A1A-B362-12456417A7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>17-23</t>
   </si>
@@ -196,13 +196,16 @@
   </si>
   <si>
     <t>Elaboración pestañas Análisis eléctrico</t>
+  </si>
+  <si>
+    <t>Correción de errores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +298,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,6 +1048,32 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,35 +1104,13 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,30 +1426,30 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="71" t="s">
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="83"/>
       <c r="S4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +1514,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1519,7 +1539,7 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1562,7 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1585,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="18" t="s">
         <v>43</v>
       </c>
@@ -1588,7 +1608,7 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1613,7 +1633,7 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1656,7 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="89"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1679,7 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="73" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1684,7 +1704,7 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
@@ -1707,7 +1727,7 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="19" t="s">
         <v>32</v>
       </c>
@@ -1730,7 +1750,7 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
@@ -1752,8 +1772,8 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="77"/>
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1775,8 +1795,8 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="74"/>
       <c r="B18" s="34" t="s">
         <v>42</v>
       </c>
@@ -1798,8 +1818,8 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -1823,8 +1843,8 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="77"/>
       <c r="B20" s="23" t="s">
         <v>48</v>
       </c>
@@ -1846,8 +1866,8 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
       <c r="B21" s="18" t="s">
         <v>44</v>
       </c>
@@ -1869,8 +1889,8 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="74"/>
       <c r="B22" s="34" t="s">
         <v>45</v>
       </c>
@@ -1887,13 +1907,13 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="90"/>
+      <c r="P22" s="71"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="73" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -1917,8 +1937,8 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="77"/>
       <c r="B24" s="18" t="s">
         <v>49</v>
       </c>
@@ -1940,8 +1960,8 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="77"/>
       <c r="B25" s="18" t="s">
         <v>50</v>
       </c>
@@ -1963,8 +1983,8 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="77"/>
       <c r="B26" s="18" t="s">
         <v>55</v>
       </c>
@@ -1986,8 +2006,8 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="77"/>
       <c r="B27" s="18" t="s">
         <v>56</v>
       </c>
@@ -2004,13 +2024,13 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="91"/>
+      <c r="P27" s="72"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="86"/>
+    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="77"/>
       <c r="B28" s="18" t="s">
         <v>51</v>
       </c>
@@ -2032,8 +2052,8 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="81" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2057,8 +2077,8 @@
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
     </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="82"/>
+    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="77"/>
       <c r="B30" s="49" t="s">
         <v>35</v>
       </c>
@@ -2080,66 +2100,90 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="81" t="s">
+    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="91"/>
+      <c r="B31" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="95"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="83"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="74"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
